--- a/data/manual_harvest_data.xlsx
+++ b/data/manual_harvest_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wfairman/Desktop/FAU_Research/Biomass/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0370FC3F-5973-F447-9A2C-5D662D9490B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B409D4-A6DB-1940-820F-CDA69F405E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{9275CE2E-FA8C-4174-9028-6C18BF3ECC70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -148,6 +148,33 @@
   <si>
     <t>8.10.23</t>
   </si>
+  <si>
+    <t>8.17.23</t>
+  </si>
+  <si>
+    <t>8.24.23</t>
+  </si>
+  <si>
+    <t>8.31.23</t>
+  </si>
+  <si>
+    <t>9.07.23</t>
+  </si>
+  <si>
+    <t>9.14.23</t>
+  </si>
+  <si>
+    <t>9.21.23</t>
+  </si>
+  <si>
+    <t>9.28.23</t>
+  </si>
+  <si>
+    <t>10.05.23</t>
+  </si>
+  <si>
+    <t>10.12.23</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +307,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AADA0B-53C3-45A1-919F-C0D4C2B52FAB}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3204,7 +3233,7 @@
         <f>C162-D162</f>
         <v>45.01</v>
       </c>
-      <c r="F162" s="17" t="s">
+      <c r="F162" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3326,7 +3355,7 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" s="17" t="s">
+      <c r="F170" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3446,7 +3475,7 @@
       <c r="C178">
         <v>0</v>
       </c>
-      <c r="D178" s="17">
+      <c r="D178">
         <v>22.11</v>
       </c>
       <c r="F178" t="s">
@@ -3553,6 +3582,1101 @@
       </c>
       <c r="F185" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <f>6.4+7-1.3*2</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" s="3">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <f>6.7+9+11.11+6.8+10.8+7-1.6*6</f>
+        <v>41.809999999999995</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <f>C187</f>
+        <v>41.809999999999995</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188" s="3">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <f>6.5+7-1.6*2</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="3">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <f>6.7+6.5-3.2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <f>6.3+6+6.3-1.6*3</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" s="3">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" s="3">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <f>5.8-1.6</f>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" s="15">
+        <v>8</v>
+      </c>
+      <c r="C193" s="7">
+        <v>0</v>
+      </c>
+      <c r="D193" s="7">
+        <v>22.11</v>
+      </c>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <f>8.6+8.8-3.2</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B196" s="3">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <f>8.2+12.2+6.51+11.4+11.5+12.1-1.6*6</f>
+        <v>52.309999999999995</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <f>C196</f>
+        <v>52.309999999999995</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <f>8.3+9.6-3.2</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="3">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>22.11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B200" s="3">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <f>5.4+7.7-3.2</f>
+        <v>9.9000000000000021</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="15">
+        <v>8</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7">
+        <f>8.7+10.2-3.2</f>
+        <v>15.7</v>
+      </c>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <f>8.6+8.8-3.2</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>39</v>
+      </c>
+      <c r="B203" s="3">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>22.11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" s="3">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="3">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <f>10.7+8.4+7.81+14.2+15.1+12.7-1.6*6</f>
+        <v>59.309999999999995</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <f>C205</f>
+        <v>59.309999999999995</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="3">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <f>18.4+7.7+9.6+7.1+12.8+11.4-1.6*6</f>
+        <v>57.4</v>
+      </c>
+      <c r="D206">
+        <f>22.11</f>
+        <v>22.11</v>
+      </c>
+      <c r="E206">
+        <f>C206-D206</f>
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="3">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <f>13.5+12.2-3.2</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="3">
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <f>7.7+7.6-3.2</f>
+        <v>12.100000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="15">
+        <v>8</v>
+      </c>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7">
+        <f>8.3+11-3.2</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F209" s="7"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <f>8.4+8.6-3.2</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <f>11.5+11.4-3.2</f>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="3">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>22.11</v>
+      </c>
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="3">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="3">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <f>15.2+10.11+13.2+10.3+8.7-1.6*5</f>
+        <v>49.510000000000005</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <f>C214</f>
+        <v>49.510000000000005</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="3">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <f>11.6+11.8-3.2</f>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="3">
+        <v>7</v>
+      </c>
+      <c r="E216">
+        <f>10+10.1-3.2</f>
+        <v>16.900000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="15">
+        <v>8</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7">
+        <f>12+11.8-3.2</f>
+        <v>20.6</v>
+      </c>
+      <c r="F217" s="7"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>41</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <f>9+9.1-3.2</f>
+        <v>14.900000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <f>13+12.9-3.2</f>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="3">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <f>12+19.5-3.2</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>22.11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" s="3">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <f>15.9+15.8-3.2</f>
+        <v>28.500000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" s="3">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <f>8.2+9.9+9.8+4.8+10.4-1.6*5</f>
+        <v>35.1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <f>C224</f>
+        <v>35.1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" s="15">
+        <v>8</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7">
+        <f>11.7+11.8-3.2</f>
+        <v>20.3</v>
+      </c>
+      <c r="F225" s="7"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>42</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f>12+12.5+3+12.2+13.9+12+7.6+14.5+11.2-1.6*9</f>
+        <v>84.499999999999986</v>
+      </c>
+      <c r="D226" s="19">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f>C226</f>
+        <v>84.499999999999986</v>
+      </c>
+      <c r="F226" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227" s="3">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <f>12.8+13.1-3.2</f>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>42</v>
+      </c>
+      <c r="B228" s="3">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <f>15.7+14.8-3.2</f>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>42</v>
+      </c>
+      <c r="B229" s="3">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <f>9.4+9.5-3.2</f>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>42</v>
+      </c>
+      <c r="B230" s="3">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>22.11</v>
+      </c>
+      <c r="F230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>42</v>
+      </c>
+      <c r="B231" s="3">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <f>13.4+14.2-3.2</f>
+        <v>24.400000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+      <c r="B232" s="3">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B233" s="15">
+        <v>8</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7">
+        <f>12+12.2-3.2</f>
+        <v>21</v>
+      </c>
+      <c r="F233" s="7"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>43</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235" s="3">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <f>10+11-3.2</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>43</v>
+      </c>
+      <c r="B236" s="3">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <f>10.5+12.5-3.2</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4</v>
+      </c>
+      <c r="E237">
+        <f>9.4+7.7-3.2</f>
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <f>14.1+14.2-3.2</f>
+        <v>25.099999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>43</v>
+      </c>
+      <c r="B239" s="3">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <f>14.2+14.3-3.2</f>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240" s="3">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>22.11</v>
+      </c>
+      <c r="F240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B241" s="15">
+        <v>8</v>
+      </c>
+      <c r="C241" s="7">
+        <f>13.6+11.71+8.9+9.8+9.8+6-1.6*6</f>
+        <v>50.21</v>
+      </c>
+      <c r="D241" s="7">
+        <v>0</v>
+      </c>
+      <c r="E241" s="7">
+        <f>C241</f>
+        <v>50.21</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>22.11</v>
+      </c>
+      <c r="F242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>44</v>
+      </c>
+      <c r="B243" s="3">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <f>14+13.9-3.2</f>
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" s="3">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <f>13.8+12.2-3.2</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>44</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <f>14.1-3.2</f>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>44</v>
+      </c>
+      <c r="B246" s="3">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <f>12.8+13-3.2</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B247" s="3">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <f>9.2+12+5.71+8.6+12.1+12.4+12.6-1.6*7</f>
+        <v>61.41</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <f>C247</f>
+        <v>61.41</v>
+      </c>
+      <c r="F247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248" s="3">
+        <v>7</v>
+      </c>
+      <c r="E248">
+        <f>14.5+14.2-3.2</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B249" s="15">
+        <v>8</v>
+      </c>
+      <c r="C249" s="7">
+        <v>0</v>
+      </c>
+      <c r="D249" s="7">
+        <v>0</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <f>11.2+11.4-3.2</f>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" s="3">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <f>9.5+9.4+8+10.6+12.4+14.2-1.6*6</f>
+        <v>54.499999999999993</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <f>C251</f>
+        <v>54.499999999999993</v>
+      </c>
+      <c r="F251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" s="3">
+        <v>3</v>
+      </c>
+      <c r="E252">
+        <f>10.1+13.1-3.2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" s="3">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <f>5.8+6.3-3.2</f>
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>45</v>
+      </c>
+      <c r="B254" s="3">
+        <v>5</v>
+      </c>
+      <c r="E254">
+        <f>11.7+11.8-3.2</f>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>45</v>
+      </c>
+      <c r="B255" s="3">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>45</v>
+      </c>
+      <c r="B256" s="3">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <f>10.6+11.2-3.2</f>
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" s="15">
+        <v>8</v>
+      </c>
+      <c r="C257" s="7">
+        <v>0</v>
+      </c>
+      <c r="D257" s="7">
+        <v>22.11</v>
+      </c>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/manual_harvest_data.xlsx
+++ b/data/manual_harvest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wfairman/Desktop/FAU_Research/Biomass/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B409D4-A6DB-1940-820F-CDA69F405E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9DF924-71EE-744F-895E-7CD4A75FDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{9275CE2E-FA8C-4174-9028-6C18BF3ECC70}"/>
+    <workbookView xWindow="4680" yWindow="540" windowWidth="33720" windowHeight="19480" xr2:uid="{9275CE2E-FA8C-4174-9028-6C18BF3ECC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,51 @@
   <si>
     <t>10.12.23</t>
   </si>
+  <si>
+    <t>10.19.23</t>
+  </si>
+  <si>
+    <t>10.26.23</t>
+  </si>
+  <si>
+    <t>11.02.23</t>
+  </si>
+  <si>
+    <t>11.09.23</t>
+  </si>
+  <si>
+    <t>11.16.23</t>
+  </si>
+  <si>
+    <t>11.23.23</t>
+  </si>
+  <si>
+    <t>11.30.23</t>
+  </si>
+  <si>
+    <t>12.07.23</t>
+  </si>
+  <si>
+    <t>12.14.23</t>
+  </si>
+  <si>
+    <t>12.21.23</t>
+  </si>
+  <si>
+    <t>12.28.23</t>
+  </si>
+  <si>
+    <t>01.04.24</t>
+  </si>
+  <si>
+    <t>01.18.24</t>
+  </si>
+  <si>
+    <t>01.25.24</t>
+  </si>
+  <si>
+    <t>01.11.24</t>
+  </si>
 </sst>
 </file>
 
@@ -210,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -279,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,9 +358,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AADA0B-53C3-45A1-919F-C0D4C2B52FAB}">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F258" sqref="F258"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M341" sqref="M341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3585,7 +3637,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B186" s="3">
@@ -3597,7 +3649,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B187" s="3">
@@ -3619,7 +3671,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B188" s="3">
@@ -3631,7 +3683,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B189" s="3">
@@ -3643,7 +3695,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B190" s="3">
@@ -3655,7 +3707,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B191" s="3">
@@ -3675,7 +3727,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B192" s="3">
@@ -3687,7 +3739,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B193" s="15">
@@ -3705,7 +3757,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B194" s="3">
@@ -3717,7 +3769,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B195" s="3">
@@ -3737,7 +3789,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B196" s="3">
@@ -3759,7 +3811,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B197" s="3">
@@ -3771,7 +3823,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B198" s="3">
@@ -3782,7 +3834,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B199" s="3">
@@ -3799,7 +3851,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B200" s="3">
@@ -3811,7 +3863,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
+      <c r="A201" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B201" s="15">
@@ -4184,7 +4236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>41</v>
       </c>
@@ -4199,7 +4251,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -4210,18 +4262,18 @@
         <f>12+12.5+3+12.2+13.9+12+7.6+14.5+11.2-1.6*9</f>
         <v>84.499999999999986</v>
       </c>
-      <c r="D226" s="19">
+      <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
         <f>C226</f>
         <v>84.499999999999986</v>
       </c>
-      <c r="F226" s="19" t="s">
+      <c r="F226" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -4233,7 +4285,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -4245,7 +4297,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>42</v>
       </c>
@@ -4257,7 +4309,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>42</v>
       </c>
@@ -4274,7 +4326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -4286,7 +4338,7 @@
         <v>24.400000000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -4306,7 +4358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>42</v>
       </c>
@@ -4320,8 +4372,9 @@
         <v>21</v>
       </c>
       <c r="F233" s="7"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -4341,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -4353,7 +4406,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>43</v>
       </c>
@@ -4365,7 +4418,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -4377,7 +4430,7 @@
         <v>13.900000000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>43</v>
       </c>
@@ -4389,7 +4442,7 @@
         <v>25.099999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>43</v>
       </c>
@@ -4401,7 +4454,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>43</v>
       </c>
@@ -4678,6 +4731,1822 @@
       <c r="F257" s="7" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B258" s="18">
+        <v>1</v>
+      </c>
+      <c r="C258" s="17"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="17">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F258" s="17"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B259" s="18">
+        <v>2</v>
+      </c>
+      <c r="C259" s="17">
+        <v>0</v>
+      </c>
+      <c r="D259" s="17">
+        <v>0</v>
+      </c>
+      <c r="E259" s="17">
+        <v>0</v>
+      </c>
+      <c r="F259" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260" s="18">
+        <v>3</v>
+      </c>
+      <c r="C260" s="17">
+        <v>54.5</v>
+      </c>
+      <c r="D260" s="17">
+        <v>0</v>
+      </c>
+      <c r="E260" s="17">
+        <v>54.5</v>
+      </c>
+      <c r="F260" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B261" s="18">
+        <v>4</v>
+      </c>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17">
+        <v>8.9</v>
+      </c>
+      <c r="F261" s="17"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B262" s="18">
+        <v>5</v>
+      </c>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17">
+        <v>20.3</v>
+      </c>
+      <c r="F262" s="17"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263" s="18">
+        <v>6</v>
+      </c>
+      <c r="C263" s="17">
+        <v>0</v>
+      </c>
+      <c r="D263" s="17">
+        <v>22.11</v>
+      </c>
+      <c r="E263" s="17"/>
+      <c r="F263" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B264" s="18">
+        <v>7</v>
+      </c>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F264" s="17"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B265" s="20">
+        <v>8</v>
+      </c>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19">
+        <v>21</v>
+      </c>
+      <c r="F265" s="19"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <f>12.9+13.9 - 1.6*2</f>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>47</v>
+      </c>
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>22.11</v>
+      </c>
+      <c r="F267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" s="3">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>47</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <f>8.2+8+7.2+5.11+9.1+8.4+7.5+8+3.7-1.6*9</f>
+        <v>50.809999999999995</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <f>C269</f>
+        <v>50.809999999999995</v>
+      </c>
+      <c r="F269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5</v>
+      </c>
+      <c r="E270">
+        <f>19.8+19.7-3.2</f>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>47</v>
+      </c>
+      <c r="B271" s="3">
+        <v>6</v>
+      </c>
+      <c r="E271">
+        <f>20+19.9-3.2</f>
+        <v>36.699999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>47</v>
+      </c>
+      <c r="B272" s="3">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <f>14.4+14.3-3.2</f>
+        <v>25.500000000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B273" s="15">
+        <v>8</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7">
+        <f>10.2+10.6-3.2</f>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="F273" s="7"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>48</v>
+      </c>
+      <c r="B274" s="3">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <f>13.5+14.5-3.2</f>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>48</v>
+      </c>
+      <c r="B275" s="3">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <f>9.1+9.2-3.2</f>
+        <v>15.099999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>48</v>
+      </c>
+      <c r="B276" s="3">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>22.11</v>
+      </c>
+      <c r="F276" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" s="3">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>48</v>
+      </c>
+      <c r="B278" s="3">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <f>2.1+4.51+9.5+13.6+13.8+12.8-1.6*6</f>
+        <v>46.71</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <f>C278</f>
+        <v>46.71</v>
+      </c>
+      <c r="F278" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>48</v>
+      </c>
+      <c r="B279" s="3">
+        <v>6</v>
+      </c>
+      <c r="E279">
+        <f>12.1+13.8-3.2</f>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>48</v>
+      </c>
+      <c r="B280" s="3">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <f>13.6+13.8-3.2</f>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B281" s="15">
+        <v>8</v>
+      </c>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7">
+        <f>13.4+13.5-3.2</f>
+        <v>23.7</v>
+      </c>
+      <c r="F281" s="7"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>49</v>
+      </c>
+      <c r="B282" s="3">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <f>13.8+17.2-3.2</f>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>49</v>
+      </c>
+      <c r="B283" s="3">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <f>9.3+9.4-3.2</f>
+        <v>15.500000000000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>49</v>
+      </c>
+      <c r="B284" s="3">
+        <v>3</v>
+      </c>
+      <c r="E284">
+        <f>14.2+13.9-3.2</f>
+        <v>24.900000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>49</v>
+      </c>
+      <c r="B285" s="3">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>22.11</v>
+      </c>
+      <c r="F285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>49</v>
+      </c>
+      <c r="B286" s="3">
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>49</v>
+      </c>
+      <c r="B287" s="3">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <f>13.6+13.5-3.2</f>
+        <v>23.900000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>49</v>
+      </c>
+      <c r="B288" s="3">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <f>13.4+11.9+13.5+14+17.2-1.6*5</f>
+        <v>62</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <f>C288</f>
+        <v>62</v>
+      </c>
+      <c r="F288" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B289" s="15">
+        <v>8</v>
+      </c>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7">
+        <f>12.5+12.4-3.2</f>
+        <v>21.7</v>
+      </c>
+      <c r="F289" s="7"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>50</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <f>9.7+11.6+5.61+8.8+11.2+10.3-1.6*6</f>
+        <v>47.609999999999992</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <f>C290</f>
+        <v>47.609999999999992</v>
+      </c>
+      <c r="F290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>50</v>
+      </c>
+      <c r="B291" s="3">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <f>6.7+6.8-3.2</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>50</v>
+      </c>
+      <c r="B292" s="3">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <f>19+18.9-3.2</f>
+        <v>34.699999999999996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>50</v>
+      </c>
+      <c r="B293" s="3">
+        <v>4</v>
+      </c>
+      <c r="E293">
+        <f>12.9+12.8-3.2</f>
+        <v>22.500000000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>50</v>
+      </c>
+      <c r="B294" s="3">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>22.11</v>
+      </c>
+      <c r="F294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>50</v>
+      </c>
+      <c r="B295" s="3">
+        <v>6</v>
+      </c>
+      <c r="E295">
+        <f>14.3+14.4-3.2</f>
+        <v>25.500000000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>50</v>
+      </c>
+      <c r="B296" s="3">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B297" s="15">
+        <v>8</v>
+      </c>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7">
+        <f>12.4+12.5-3.2</f>
+        <v>21.7</v>
+      </c>
+      <c r="F297" s="7"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>51</v>
+      </c>
+      <c r="B298" s="3">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" s="3">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>51</v>
+      </c>
+      <c r="B300" s="3">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>51</v>
+      </c>
+      <c r="B301" s="3">
+        <v>4</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>51</v>
+      </c>
+      <c r="B302" s="3">
+        <v>5</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>51</v>
+      </c>
+      <c r="B303" s="3">
+        <v>6</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>51</v>
+      </c>
+      <c r="B304" s="3">
+        <v>7</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B305" s="15">
+        <v>8</v>
+      </c>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7">
+        <v>0</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>52</v>
+      </c>
+      <c r="B306" s="3">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>52</v>
+      </c>
+      <c r="B307" s="3">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <f>12.1+12.3-3.2</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>52</v>
+      </c>
+      <c r="B308" s="3">
+        <v>3</v>
+      </c>
+      <c r="E308">
+        <f>19.5+19-3.2</f>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>52</v>
+      </c>
+      <c r="B309" s="3">
+        <v>4</v>
+      </c>
+      <c r="E309">
+        <f>19.5+19.5-3.2</f>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>52</v>
+      </c>
+      <c r="B310" s="3">
+        <v>5</v>
+      </c>
+      <c r="E310">
+        <f>13.6+13.4-3.2</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>52</v>
+      </c>
+      <c r="B311" s="3">
+        <v>6</v>
+      </c>
+      <c r="E311">
+        <f>14.4+14.6-3.2</f>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>52</v>
+      </c>
+      <c r="B312" s="3">
+        <v>7</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>22.11</v>
+      </c>
+      <c r="F312" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B313" s="15">
+        <v>8</v>
+      </c>
+      <c r="C313" s="7">
+        <f>11.3+14+8.6+17.8+13.6+11.8+12.4-1.6*7</f>
+        <v>78.3</v>
+      </c>
+      <c r="D313" s="7">
+        <v>0</v>
+      </c>
+      <c r="E313" s="7">
+        <f>C313</f>
+        <v>78.3</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>53</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>22.11</v>
+      </c>
+      <c r="F314" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>53</v>
+      </c>
+      <c r="B315" s="3">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <f>8.3+8.5-3.2</f>
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>53</v>
+      </c>
+      <c r="B316" s="3">
+        <v>3</v>
+      </c>
+      <c r="E316">
+        <f>19.5+19.8-3.2</f>
+        <v>36.099999999999994</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>53</v>
+      </c>
+      <c r="B317" s="3">
+        <v>4</v>
+      </c>
+      <c r="E317">
+        <f>14.2+14.4-3.2</f>
+        <v>25.400000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>53</v>
+      </c>
+      <c r="B318" s="3">
+        <v>5</v>
+      </c>
+      <c r="E318">
+        <f>11+11.2-3.2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>53</v>
+      </c>
+      <c r="B319" s="3">
+        <v>6</v>
+      </c>
+      <c r="C319">
+        <f>13.5+11.8+16.5+18.8+15.9-1.6*5</f>
+        <v>68.5</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <f>C319</f>
+        <v>68.5</v>
+      </c>
+      <c r="F319" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>53</v>
+      </c>
+      <c r="B320" s="3">
+        <v>7</v>
+      </c>
+      <c r="E320">
+        <f>10.6+11.6-3.2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B321" s="15">
+        <v>8</v>
+      </c>
+      <c r="C321" s="7">
+        <v>0</v>
+      </c>
+      <c r="D321" s="7">
+        <v>0</v>
+      </c>
+      <c r="E321" s="7">
+        <v>0</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>54</v>
+      </c>
+      <c r="B322" s="3">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <f>19.4+19.3-3.2</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" s="3">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <f>7.8+7.6+8.7+4.4+8.5+9.6+8.7+8+12.5+11.5-1.6*10</f>
+        <v>71.3</v>
+      </c>
+      <c r="D323">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <f>C323</f>
+        <v>71.3</v>
+      </c>
+      <c r="F323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>54</v>
+      </c>
+      <c r="B324" s="3">
+        <v>3</v>
+      </c>
+      <c r="E324">
+        <f>19.5+19.1-3.2</f>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>54</v>
+      </c>
+      <c r="B325" s="3">
+        <v>4</v>
+      </c>
+      <c r="E325">
+        <f>16.8+16.4-3.2</f>
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>54</v>
+      </c>
+      <c r="B326" s="3">
+        <v>5</v>
+      </c>
+      <c r="E326">
+        <f>12.8+12-3.2</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>54</v>
+      </c>
+      <c r="B327" s="3">
+        <v>6</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>54</v>
+      </c>
+      <c r="B328" s="3">
+        <v>7</v>
+      </c>
+      <c r="E328">
+        <f>13+13.4-3.2</f>
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B329" s="15">
+        <v>8</v>
+      </c>
+      <c r="C329" s="7">
+        <v>0</v>
+      </c>
+      <c r="D329" s="7">
+        <v>22.11</v>
+      </c>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>55</v>
+      </c>
+      <c r="B330" s="3">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <f>22.6-1.6</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>55</v>
+      </c>
+      <c r="B331" s="3">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>55</v>
+      </c>
+      <c r="B332" s="3">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <f>18.2+12.6+10.6+12.8-1.6*4</f>
+        <v>47.800000000000004</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <f>C332</f>
+        <v>47.800000000000004</v>
+      </c>
+      <c r="F332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>55</v>
+      </c>
+      <c r="B333" s="3">
+        <v>4</v>
+      </c>
+      <c r="E333">
+        <f>24.7-1.6</f>
+        <v>23.099999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>55</v>
+      </c>
+      <c r="B334" s="3">
+        <v>5</v>
+      </c>
+      <c r="E334">
+        <f>13.5+11.6-3.2</f>
+        <v>21.900000000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>55</v>
+      </c>
+      <c r="B335" s="3">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>22.11</v>
+      </c>
+      <c r="F335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B336" s="18">
+        <v>7</v>
+      </c>
+      <c r="C336" s="17"/>
+      <c r="D336" s="17"/>
+      <c r="E336" s="17">
+        <f>17.7+18-3.2</f>
+        <v>32.5</v>
+      </c>
+      <c r="F336" s="17"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B337" s="15">
+        <v>8</v>
+      </c>
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7">
+        <f>11.4+11.5-3.2</f>
+        <v>19.7</v>
+      </c>
+      <c r="F337" s="7"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>56</v>
+      </c>
+      <c r="B338" s="3">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>56</v>
+      </c>
+      <c r="B339" s="3">
+        <v>2</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>56</v>
+      </c>
+      <c r="B340" s="3">
+        <v>3</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>56</v>
+      </c>
+      <c r="B341" s="3">
+        <v>4</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>56</v>
+      </c>
+      <c r="B342" s="3">
+        <v>5</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>56</v>
+      </c>
+      <c r="B343" s="3">
+        <v>6</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344" s="3">
+        <v>7</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B345" s="15">
+        <v>8</v>
+      </c>
+      <c r="C345" s="7"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="7">
+        <v>0</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>57</v>
+      </c>
+      <c r="B346" s="3">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <f>13.2+13.1-3.2</f>
+        <v>23.099999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>57</v>
+      </c>
+      <c r="B347" s="3">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>22.11</v>
+      </c>
+      <c r="F347" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>57</v>
+      </c>
+      <c r="B348" s="3">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>57</v>
+      </c>
+      <c r="B349" s="3">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <f>19.5+5.8+15.1+12+15-1.6*5</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <f>C349</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="F349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>57</v>
+      </c>
+      <c r="B350" s="3">
+        <v>5</v>
+      </c>
+      <c r="E350">
+        <f>11+10.6-3.2</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>57</v>
+      </c>
+      <c r="B351" s="3">
+        <v>6</v>
+      </c>
+      <c r="E351">
+        <f>10+10.1-3.2</f>
+        <v>16.900000000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>57</v>
+      </c>
+      <c r="B352" s="3">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <f>11.2+10.6-3.2</f>
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B353" s="15">
+        <v>8</v>
+      </c>
+      <c r="C353" s="7"/>
+      <c r="D353" s="7"/>
+      <c r="E353" s="7">
+        <f>10+10.2-3.2</f>
+        <v>17</v>
+      </c>
+      <c r="F353" s="7"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>60</v>
+      </c>
+      <c r="B354" s="3">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <f>12.3+12.3-3.2</f>
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>60</v>
+      </c>
+      <c r="B355" s="3">
+        <v>2</v>
+      </c>
+      <c r="E355">
+        <f>13.8+13.5-3.2</f>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>60</v>
+      </c>
+      <c r="B356" s="3">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>22.11</v>
+      </c>
+      <c r="F356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>60</v>
+      </c>
+      <c r="B357" s="3">
+        <v>4</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>60</v>
+      </c>
+      <c r="B358" s="3">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <f>12.4+11.1+3.4+6.7+12.3+11.5-1.6*6</f>
+        <v>47.800000000000004</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <f>C358</f>
+        <v>47.800000000000004</v>
+      </c>
+      <c r="F358" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>60</v>
+      </c>
+      <c r="B359" s="3">
+        <v>6</v>
+      </c>
+      <c r="E359">
+        <f>8.1+8.3-3.2</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>60</v>
+      </c>
+      <c r="B360" s="3">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <f>6+11.8-3.2</f>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B361" s="15">
+        <v>8</v>
+      </c>
+      <c r="C361" s="7"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="7">
+        <f>8.8+9</f>
+        <v>17.8</v>
+      </c>
+      <c r="F361" s="7"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>58</v>
+      </c>
+      <c r="B362" s="3">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <f>12.45+11.53-3.2</f>
+        <v>20.779999999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>58</v>
+      </c>
+      <c r="B363" s="3">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <f>14.79+11.39-3.2</f>
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>58</v>
+      </c>
+      <c r="B364" s="3">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <f>10.31+10.69-3.2</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>58</v>
+      </c>
+      <c r="B365" s="3">
+        <v>4</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>22.11</v>
+      </c>
+      <c r="F365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>58</v>
+      </c>
+      <c r="B366" s="3">
+        <v>5</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>58</v>
+      </c>
+      <c r="B367" s="3">
+        <v>6</v>
+      </c>
+      <c r="E367">
+        <f>11.39+12.98-3.2</f>
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>58</v>
+      </c>
+      <c r="B368" s="3">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <f>9.22+12.74+9.27-4.8</f>
+        <v>26.43</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <f>C368</f>
+        <v>26.43</v>
+      </c>
+      <c r="F368" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B369" s="15">
+        <v>8</v>
+      </c>
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="7">
+        <f>9.26+8.94-3.2</f>
+        <v>15</v>
+      </c>
+      <c r="F369" s="7"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>59</v>
+      </c>
+      <c r="B370" s="3">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <f>11.6+10+5.51+9.4-1.6*4</f>
+        <v>30.11</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <f>C370</f>
+        <v>30.11</v>
+      </c>
+      <c r="F370" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>59</v>
+      </c>
+      <c r="B371" s="3">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <f>14.4+13.2-3.2</f>
+        <v>24.400000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>59</v>
+      </c>
+      <c r="B372" s="3">
+        <v>3</v>
+      </c>
+      <c r="E372">
+        <f>10.6+10.5-3.2</f>
+        <v>17.900000000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>59</v>
+      </c>
+      <c r="B373" s="3">
+        <v>4</v>
+      </c>
+      <c r="E373">
+        <f>13.6+13.5-3.2</f>
+        <v>23.900000000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>59</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>22.11</v>
+      </c>
+      <c r="F374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>59</v>
+      </c>
+      <c r="B375" s="3">
+        <v>6</v>
+      </c>
+      <c r="E375">
+        <f>10.6+10.5-3.2</f>
+        <v>17.900000000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>59</v>
+      </c>
+      <c r="B376" s="3">
+        <v>7</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B377" s="15">
+        <v>8</v>
+      </c>
+      <c r="C377" s="7"/>
+      <c r="D377" s="7"/>
+      <c r="E377" s="7">
+        <f>8.9+8.8-3.2</f>
+        <v>14.500000000000004</v>
+      </c>
+      <c r="F377" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
